--- a/scores/GFP_highbrightness_SPscores_merged.xlsx
+++ b/scores/GFP_highbrightness_SPscores_merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/annateresa_lai_mail_utoronto_ca/Documents/USRP Summer/GitHub/Pardee-Lab-computation-project-pipeline/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_BEA61AB98AC531E9358B3CEAEEF59A5870D9A649" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C7B974F-45AC-4FE8-B65E-54D2FCB2FAF7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_BEA61AB98AC531E9358B3CEAEEF59A5870D9A649" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ADDD1EC-2051-4DAC-915A-CD14A60650A7}"/>
   <bookViews>
-    <workbookView xWindow="9588" yWindow="72" windowWidth="11004" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="672" windowWidth="12972" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GFP_highbrightness_SPscores_mer" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Brightness_ID</t>
   </si>
@@ -722,6 +722,12 @@
   </si>
   <si>
     <t>RDHMVLLEFLTAAGIT</t>
+  </si>
+  <si>
+    <t>RMSD</t>
+  </si>
+  <si>
+    <t>Number_of_atoms</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,7 +1115,7 @@
     <col min="4" max="4" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,8 +1161,14 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1202,8 +1214,14 @@
       <c r="O2">
         <v>-3.78</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>6.3096955418586703E-2</v>
+      </c>
+      <c r="Q2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1249,8 +1267,14 @@
       <c r="O3">
         <v>-3.64</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>4.1642237454652703E-2</v>
+      </c>
+      <c r="Q3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1296,8 +1320,14 @@
       <c r="O4">
         <v>-6.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>6.3402362167835194E-2</v>
+      </c>
+      <c r="Q4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1343,8 +1373,14 @@
       <c r="O5">
         <v>-6.83</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>6.2980495393276201E-2</v>
+      </c>
+      <c r="Q5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1426,14 @@
       <c r="O6">
         <v>-6.45</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>6.1475761234760201E-2</v>
+      </c>
+      <c r="Q6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1437,8 +1479,14 @@
       <c r="O7">
         <v>-6.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>5.8655921369791003E-2</v>
+      </c>
+      <c r="Q7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1484,8 +1532,14 @@
       <c r="O8">
         <v>-6.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>6.5199419856071403E-2</v>
+      </c>
+      <c r="Q8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1531,8 +1585,14 @@
       <c r="O9">
         <v>-5.57</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>6.2007773667573901E-2</v>
+      </c>
+      <c r="Q9">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1578,8 +1638,14 @@
       <c r="O10">
         <v>-6.44</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>6.2655322253704002E-2</v>
+      </c>
+      <c r="Q10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1625,8 +1691,14 @@
       <c r="O11">
         <v>-4.45</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>6.2036991119384703E-2</v>
+      </c>
+      <c r="Q11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1672,8 +1744,14 @@
       <c r="O12">
         <v>-3.56</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>6.5191701054573004E-2</v>
+      </c>
+      <c r="Q12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1719,8 +1797,14 @@
       <c r="O13">
         <v>-3.93</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>7.0647984743118203E-2</v>
+      </c>
+      <c r="Q13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1766,8 +1850,14 @@
       <c r="O14">
         <v>-4.91</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>3.2372958958148901E-2</v>
+      </c>
+      <c r="Q14">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1813,8 +1903,14 @@
       <c r="O15">
         <v>-3.32</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>6.3683256506919805E-2</v>
+      </c>
+      <c r="Q15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1860,8 +1956,14 @@
       <c r="O16">
         <v>-4.0199999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>6.0357946902513497E-2</v>
+      </c>
+      <c r="Q16">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1907,8 +2009,14 @@
       <c r="O17">
         <v>-3.88</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>6.2820412218570695E-2</v>
+      </c>
+      <c r="Q17">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1954,8 +2062,14 @@
       <c r="O18">
         <v>-4.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>7.1122832596302005E-2</v>
+      </c>
+      <c r="Q18">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2001,8 +2115,14 @@
       <c r="O19">
         <v>-4.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>6.1056181788444498E-2</v>
+      </c>
+      <c r="Q19">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -2048,8 +2168,14 @@
       <c r="O20">
         <v>-4.28</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>6.1274949461221598E-2</v>
+      </c>
+      <c r="Q20">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2095,8 +2221,14 @@
       <c r="O21">
         <v>-3.57</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>5.9980574995279298E-2</v>
+      </c>
+      <c r="Q21">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2142,8 +2274,14 @@
       <c r="O22">
         <v>-3.69</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>7.4987642467021901E-2</v>
+      </c>
+      <c r="Q22">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2189,8 +2327,14 @@
       <c r="O23">
         <v>-4.04</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>6.8245902657508795E-2</v>
+      </c>
+      <c r="Q23">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -2236,8 +2380,14 @@
       <c r="O24">
         <v>-3.53</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>8.21214243769645E-2</v>
+      </c>
+      <c r="Q24">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2283,8 +2433,14 @@
       <c r="O25">
         <v>-3.86</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>6.5622419118881198E-2</v>
+      </c>
+      <c r="Q25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2330,8 +2486,14 @@
       <c r="O26">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>5.6308086961507797E-2</v>
+      </c>
+      <c r="Q26">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2377,8 +2539,14 @@
       <c r="O27">
         <v>-4.0199999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>6.1780322343110997E-2</v>
+      </c>
+      <c r="Q27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2424,8 +2592,14 @@
       <c r="O28">
         <v>-3.94</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>6.4163245260715401E-2</v>
+      </c>
+      <c r="Q28">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2471,8 +2645,14 @@
       <c r="O29">
         <v>-6.88</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>6.3107788562774603E-2</v>
+      </c>
+      <c r="Q29">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="O30">
         <v>-6.03</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>6.6139996051788302E-2</v>
+      </c>
+      <c r="Q30">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2565,8 +2751,14 @@
       <c r="O31">
         <v>-7.49</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>2.68213469535112E-2</v>
+      </c>
+      <c r="Q31">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2612,8 +2804,14 @@
       <c r="O32">
         <v>-6.07</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>5.8819010853767298E-2</v>
+      </c>
+      <c r="Q32">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2659,8 +2857,14 @@
       <c r="O33">
         <v>-4.1100000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>6.0974683612584998E-2</v>
+      </c>
+      <c r="Q33">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2706,8 +2910,14 @@
       <c r="O34">
         <v>-4.12</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>6.3980892300605705E-2</v>
+      </c>
+      <c r="Q34">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2753,8 +2963,14 @@
       <c r="O35">
         <v>-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>5.6822441518306697E-2</v>
+      </c>
+      <c r="Q35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2800,8 +3016,14 @@
       <c r="O36">
         <v>-4.21</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>5.7876206934452001E-2</v>
+      </c>
+      <c r="Q36">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2847,8 +3069,14 @@
       <c r="O37">
         <v>-3.63</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>6.4801990985870306E-2</v>
+      </c>
+      <c r="Q37">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2894,8 +3122,14 @@
       <c r="O38">
         <v>-3.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>6.3370756804943001E-2</v>
+      </c>
+      <c r="Q38">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2941,8 +3175,14 @@
       <c r="O39">
         <v>-3.49</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>5.9371385723352398E-2</v>
+      </c>
+      <c r="Q39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2988,8 +3228,14 @@
       <c r="O40">
         <v>-3.78</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>6.13250061869621E-2</v>
+      </c>
+      <c r="Q40">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -3035,8 +3281,14 @@
       <c r="O41">
         <v>-3.57</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>2.9704516753554299E-2</v>
+      </c>
+      <c r="Q41">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -3082,8 +3334,14 @@
       <c r="O42">
         <v>-3.71</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>6.5416611731052399E-2</v>
+      </c>
+      <c r="Q42">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -3129,8 +3387,14 @@
       <c r="O43">
         <v>-4.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>6.6121213138103402E-2</v>
+      </c>
+      <c r="Q43">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -3176,8 +3440,14 @@
       <c r="O44">
         <v>-3.92</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>6.3954561948776203E-2</v>
+      </c>
+      <c r="Q44">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -3223,8 +3493,14 @@
       <c r="O45">
         <v>-4.0199999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>6.8334341049194294E-2</v>
+      </c>
+      <c r="Q45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -3270,8 +3546,14 @@
       <c r="O46">
         <v>-3.61</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>6.6173769533634103E-2</v>
+      </c>
+      <c r="Q46">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -3317,8 +3599,14 @@
       <c r="O47">
         <v>-3.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>6.8349972367286599E-2</v>
+      </c>
+      <c r="Q47">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -3364,8 +3652,14 @@
       <c r="O48">
         <v>-3.83</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>6.1747495085000902E-2</v>
+      </c>
+      <c r="Q48">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -3411,8 +3705,14 @@
       <c r="O49">
         <v>-3.81</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>5.8969035744666998E-2</v>
+      </c>
+      <c r="Q49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -3458,8 +3758,14 @@
       <c r="O50">
         <v>-3.77</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>7.40649923682212E-2</v>
+      </c>
+      <c r="Q50">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -3505,8 +3811,14 @@
       <c r="O51">
         <v>-4.26</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>6.0681350529193802E-2</v>
+      </c>
+      <c r="Q51">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -3552,8 +3864,14 @@
       <c r="O52">
         <v>-3.46</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>6.0441765934228897E-2</v>
+      </c>
+      <c r="Q52">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -3599,8 +3917,14 @@
       <c r="O53">
         <v>-3.94</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>2.71231606602668E-2</v>
+      </c>
+      <c r="Q53">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3646,8 +3970,14 @@
       <c r="O54">
         <v>-3.68</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>2.8714867308735799E-2</v>
+      </c>
+      <c r="Q54">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -3693,8 +4023,14 @@
       <c r="O55">
         <v>-3.85</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>2.9029319062829E-2</v>
+      </c>
+      <c r="Q55">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -3740,8 +4076,14 @@
       <c r="O56">
         <v>-3.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>5.7287242263555499E-2</v>
+      </c>
+      <c r="Q56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -3787,8 +4129,14 @@
       <c r="O57">
         <v>-3.62</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>6.3465848565101596E-2</v>
+      </c>
+      <c r="Q57">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -3834,8 +4182,14 @@
       <c r="O58">
         <v>-3.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>2.90702525526285E-2</v>
+      </c>
+      <c r="Q58">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -3881,8 +4235,14 @@
       <c r="O59">
         <v>-4.03</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>2.77950186282396E-2</v>
+      </c>
+      <c r="Q59">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -3928,8 +4288,14 @@
       <c r="O60">
         <v>-3.63</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>7.4889957904815604E-2</v>
+      </c>
+      <c r="Q60">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3975,8 +4341,14 @@
       <c r="O61">
         <v>-3.73</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>6.83135986328125E-2</v>
+      </c>
+      <c r="Q61">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -4022,8 +4394,14 @@
       <c r="O62">
         <v>-3.91</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>5.7532459497451699E-2</v>
+      </c>
+      <c r="Q62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -4069,8 +4447,14 @@
       <c r="O63">
         <v>-3.99</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>5.7709731161594301E-2</v>
+      </c>
+      <c r="Q63">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -4116,8 +4500,14 @@
       <c r="O64">
         <v>-4.01</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>2.9597880318760799E-2</v>
+      </c>
+      <c r="Q64">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -4163,8 +4553,14 @@
       <c r="O65">
         <v>-4</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>5.6331619620323098E-2</v>
+      </c>
+      <c r="Q65">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -4210,8 +4606,14 @@
       <c r="O66">
         <v>-6.08</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>6.1584983021020799E-2</v>
+      </c>
+      <c r="Q66">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -4257,8 +4659,14 @@
       <c r="O67">
         <v>-5.82</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>5.9480667114257799E-2</v>
+      </c>
+      <c r="Q67">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -4304,8 +4712,14 @@
       <c r="O68">
         <v>-5.82</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>5.7615369558334302E-2</v>
+      </c>
+      <c r="Q68">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -4351,8 +4765,14 @@
       <c r="O69">
         <v>-5.58</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>5.9162691235542297E-2</v>
+      </c>
+      <c r="Q69">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -4398,8 +4818,14 @@
       <c r="O70">
         <v>-6.83</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>6.4777866005897494E-2</v>
+      </c>
+      <c r="Q70">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -4445,8 +4871,14 @@
       <c r="O71">
         <v>-3.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>6.8252034485340105E-2</v>
+      </c>
+      <c r="Q71">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -4492,8 +4924,14 @@
       <c r="O72">
         <v>-4.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>7.3679469525814001E-2</v>
+      </c>
+      <c r="Q72">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -4539,8 +4977,14 @@
       <c r="O73">
         <v>-3.92</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>6.58906400203704E-2</v>
+      </c>
+      <c r="Q73">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -4586,8 +5030,14 @@
       <c r="O74">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>6.6105127334594699E-2</v>
+      </c>
+      <c r="Q74">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -4633,8 +5083,14 @@
       <c r="O75">
         <v>-3.68</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>6.9159820675849901E-2</v>
+      </c>
+      <c r="Q75">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -4680,8 +5136,14 @@
       <c r="O76">
         <v>-5.96</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>6.7399352788925102E-2</v>
+      </c>
+      <c r="Q76">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -4727,8 +5189,14 @@
       <c r="O77">
         <v>-6.73</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>6.1509579420089701E-2</v>
+      </c>
+      <c r="Q77">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -4774,8 +5242,14 @@
       <c r="O78">
         <v>-6.42</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>6.2068607658147798E-2</v>
+      </c>
+      <c r="Q78">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -4821,8 +5295,14 @@
       <c r="O79">
         <v>-6.33</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>6.6077344119548798E-2</v>
+      </c>
+      <c r="Q79">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -4868,8 +5348,14 @@
       <c r="O80">
         <v>-4.4400000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>6.4941793680190998E-2</v>
+      </c>
+      <c r="Q80">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -4915,8 +5401,14 @@
       <c r="O81">
         <v>-3.45</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>6.4836710691451999E-2</v>
+      </c>
+      <c r="Q81">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>175</v>
       </c>
@@ -4962,8 +5454,14 @@
       <c r="O82">
         <v>-3.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>6.1206296086311299E-2</v>
+      </c>
+      <c r="Q82">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>177</v>
       </c>
@@ -5009,8 +5507,14 @@
       <c r="O83">
         <v>-4.22</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>3.6368940025568001E-2</v>
+      </c>
+      <c r="Q83">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>179</v>
       </c>
@@ -5056,8 +5560,14 @@
       <c r="O84">
         <v>-3.87</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>6.4353913068771307E-2</v>
+      </c>
+      <c r="Q84">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>181</v>
       </c>
@@ -5103,8 +5613,14 @@
       <c r="O85">
         <v>-4</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>6.34285733103752E-2</v>
+      </c>
+      <c r="Q85">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>183</v>
       </c>
@@ -5150,8 +5666,14 @@
       <c r="O86">
         <v>-3.62</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>5.7580139487981699E-2</v>
+      </c>
+      <c r="Q86">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>185</v>
       </c>
@@ -5197,8 +5719,14 @@
       <c r="O87">
         <v>-4.16</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>5.4607570171356201E-2</v>
+      </c>
+      <c r="Q87">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -5244,8 +5772,14 @@
       <c r="O88">
         <v>-4.08</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>6.0317628085613202E-2</v>
+      </c>
+      <c r="Q88">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -5291,8 +5825,14 @@
       <c r="O89">
         <v>-4.37</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>6.1342805624008102E-2</v>
+      </c>
+      <c r="Q89">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -5338,8 +5878,14 @@
       <c r="O90">
         <v>-3.66</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>6.0232315212488098E-2</v>
+      </c>
+      <c r="Q90">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>193</v>
       </c>
@@ -5385,8 +5931,14 @@
       <c r="O91">
         <v>-5.88</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <v>6.1927016824483802E-2</v>
+      </c>
+      <c r="Q91">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>195</v>
       </c>
@@ -5432,8 +5984,14 @@
       <c r="O92">
         <v>-5.88</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <v>2.6613455265760401E-2</v>
+      </c>
+      <c r="Q92">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>197</v>
       </c>
@@ -5479,8 +6037,14 @@
       <c r="O93">
         <v>-7</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <v>6.1427220702171298E-2</v>
+      </c>
+      <c r="Q93">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -5526,8 +6090,14 @@
       <c r="O94">
         <v>-5.24</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>2.5915807113051401E-2</v>
+      </c>
+      <c r="Q94">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>201</v>
       </c>
@@ -5573,8 +6143,14 @@
       <c r="O95">
         <v>-5.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <v>6.4872056245803805E-2</v>
+      </c>
+      <c r="Q95">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>203</v>
       </c>
@@ -5620,8 +6196,14 @@
       <c r="O96">
         <v>-5.73</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <v>6.5950959920883095E-2</v>
+      </c>
+      <c r="Q96">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -5667,8 +6249,14 @@
       <c r="O97">
         <v>-7.05</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <v>6.4781397581100394E-2</v>
+      </c>
+      <c r="Q97">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -5714,8 +6302,14 @@
       <c r="O98">
         <v>-5.38</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <v>3.29191461205482E-2</v>
+      </c>
+      <c r="Q98">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -5761,8 +6355,14 @@
       <c r="O99">
         <v>-6.55</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99">
+        <v>2.57327947765588E-2</v>
+      </c>
+      <c r="Q99">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>211</v>
       </c>
@@ -5808,8 +6408,14 @@
       <c r="O100">
         <v>-5.0599999999999996</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100">
+        <v>6.7255504429340293E-2</v>
+      </c>
+      <c r="Q100">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>213</v>
       </c>
@@ -5855,8 +6461,14 @@
       <c r="O101">
         <v>-3.39</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101">
+        <v>2.9452757909893899E-2</v>
+      </c>
+      <c r="Q101">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>215</v>
       </c>
@@ -5902,8 +6514,14 @@
       <c r="O102">
         <v>-4</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102">
+        <v>6.2399182468652697E-2</v>
+      </c>
+      <c r="Q102">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>217</v>
       </c>
@@ -5949,8 +6567,14 @@
       <c r="O103">
         <v>-3.18</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P103">
+        <v>6.6257521510124207E-2</v>
+      </c>
+      <c r="Q103">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>219</v>
       </c>
@@ -5996,8 +6620,14 @@
       <c r="O104">
         <v>-3.89</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P104">
+        <v>6.6770136356353704E-2</v>
+      </c>
+      <c r="Q104">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>221</v>
       </c>
@@ -6043,8 +6673,14 @@
       <c r="O105">
         <v>-3.74</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P105">
+        <v>6.2052249908447203E-2</v>
+      </c>
+      <c r="Q105">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -6090,8 +6726,14 @@
       <c r="O106">
         <v>-4.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P106">
+        <v>6.5924741327762604E-2</v>
+      </c>
+      <c r="Q106">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>225</v>
       </c>
@@ -6137,8 +6779,14 @@
       <c r="O107">
         <v>-3.81</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P107">
+        <v>6.3207082450389807E-2</v>
+      </c>
+      <c r="Q107">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>227</v>
       </c>
@@ -6184,8 +6832,14 @@
       <c r="O108">
         <v>-4.07</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108">
+        <v>6.4640991389751407E-2</v>
+      </c>
+      <c r="Q108">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>229</v>
       </c>
@@ -6231,8 +6885,14 @@
       <c r="O109">
         <v>-5.42</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P109">
+        <v>6.4193874597549397E-2</v>
+      </c>
+      <c r="Q109">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>231</v>
       </c>
@@ -6277,6 +6937,12 @@
       </c>
       <c r="O110">
         <v>-3.83</v>
+      </c>
+      <c r="P110">
+        <v>2.92348861694335E-2</v>
+      </c>
+      <c r="Q110">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
